--- a/Clone/QuanLyDiemClone/Book2.xlsx
+++ b/Clone/QuanLyDiemClone/Book2.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -490,9 +490,6 @@
       <c r="E2">
         <v>903555777</v>
       </c>
-      <c r="F2">
-        <v>4061998</v>
-      </c>
       <c r="G2" s="1">
         <v>35950</v>
       </c>
@@ -516,9 +513,6 @@
       <c r="E3">
         <v>903555666</v>
       </c>
-      <c r="F3">
-        <v>5101995</v>
-      </c>
       <c r="G3" s="1">
         <v>34977</v>
       </c>
@@ -542,9 +536,6 @@
       <c r="E4">
         <v>903789777</v>
       </c>
-      <c r="F4">
-        <v>6061995</v>
-      </c>
       <c r="G4" s="1">
         <v>34856</v>
       </c>
@@ -568,9 +559,6 @@
       <c r="E5">
         <v>902565656</v>
       </c>
-      <c r="F5">
-        <v>20081997</v>
-      </c>
       <c r="G5" s="1">
         <v>35662</v>
       </c>
@@ -593,9 +581,6 @@
       </c>
       <c r="E6">
         <v>903555542</v>
-      </c>
-      <c r="F6">
-        <v>8121999</v>
       </c>
       <c r="G6" s="1">
         <v>36502</v>
